--- a/Plotting/production_shares_ammonia.xlsx
+++ b/Plotting/production_shares_ammonia.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>764120.2283682328</v>
+        <v>770048.8522789858</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>1109438.798895803</v>
       </c>
       <c r="C7" t="n">
-        <v>415616.708524584</v>
+        <v>409735.7389518141</v>
       </c>
       <c r="D7" t="n">
         <v>1178222.42760983</v>
@@ -618,7 +618,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>\ce{CO2} utilization</t>
+          <t>CO$_2$ utilization</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -687,6 +687,31 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Plastic waste recycling with CC</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Plotting/production_shares_ammonia.xlsx
+++ b/Plotting/production_shares_ammonia.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,53 +597,53 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1109438.798895803</v>
+        <v>919181.254081609</v>
       </c>
       <c r="C7" t="n">
-        <v>409735.7389518141</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1178222.42760983</v>
+        <v>1001764.273984157</v>
       </c>
       <c r="E7" t="n">
-        <v>1109438.798895803</v>
+        <v>995260.6156279875</v>
       </c>
       <c r="F7" t="n">
-        <v>1179659.189307506</v>
+        <v>933827.17285387</v>
       </c>
       <c r="G7" t="n">
-        <v>1178475.59246352</v>
+        <v>935633.1133170046</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>CO$_2$ utilization</t>
+          <t>Water electrolysis</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>190257.5448141939</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>409735.7389518141</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>176458.1536256725</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>114178.1832678152</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>245832.0164536356</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>242842.4791465157</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Bio-based feedstock</t>
+          <t>CO$_2$ utilization</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -668,7 +668,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Plastic waste recycling</t>
+          <t>Bio-based feedstock</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -693,25 +693,50 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>Plastic waste recycling</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
           <t>Plastic waste recycling with CC</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Plotting/production_shares_ammonia.xlsx
+++ b/Plotting/production_shares_ammonia.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,18 +469,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>EmissionLimit Greenfield</t>
+          <t>Emissionlimit Brownfield</t>
         </is>
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>EmissionLimit Brownfield</t>
-        </is>
-      </c>
+      <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,11 +499,25 @@
       <c r="D2" s="1" t="n"/>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>Chemelot</t>
+          <t>Zeeland</t>
         </is>
       </c>
       <c r="F2" s="1" t="n"/>
       <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>MPWemission</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="n"/>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>OptBIO</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="n"/>
+      <c r="M2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -539,6 +555,36 @@
           <t>2050</t>
         </is>
       </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -550,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>770048.8522789858</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -562,6 +608,24 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -589,6 +653,24 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -597,22 +679,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>919181.254081609</v>
+        <v>995260.6156279875</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>933827.17285387</v>
       </c>
       <c r="D7" t="n">
-        <v>1001764.273984157</v>
+        <v>935633.1133170046</v>
       </c>
       <c r="E7" t="n">
-        <v>995260.6156279875</v>
+        <v>993971.1402394414</v>
       </c>
       <c r="F7" t="n">
-        <v>933827.17285387</v>
+        <v>1196324.831155153</v>
       </c>
       <c r="G7" t="n">
-        <v>935633.1133170046</v>
+        <v>1209392.130763266</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1003302.28224</v>
+      </c>
+      <c r="I7" t="n">
+        <v>999880.50282332</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1010914.192579916</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1003302.282239998</v>
+      </c>
+      <c r="L7" t="n">
+        <v>991969.1294183502</v>
+      </c>
+      <c r="M7" t="n">
+        <v>997933.3467806721</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +722,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>190257.5448141939</v>
+        <v>114178.1832678152</v>
       </c>
       <c r="C8" t="n">
-        <v>409735.7389518141</v>
+        <v>245832.0164536356</v>
       </c>
       <c r="D8" t="n">
-        <v>176458.1536256725</v>
+        <v>242842.4791465157</v>
       </c>
       <c r="E8" t="n">
-        <v>114178.1832678152</v>
+        <v>727245.2217745543</v>
       </c>
       <c r="F8" t="n">
-        <v>245832.0164536356</v>
+        <v>622069.6638139925</v>
       </c>
       <c r="G8" t="n">
-        <v>242842.4791465157</v>
+        <v>605757.6457301588</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4109.032718056557</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>17960.49100618666</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1507.357148631683</v>
       </c>
     </row>
     <row r="9">
@@ -664,6 +782,24 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +825,24 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +868,24 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -739,13 +911,32 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="H2:J2"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Plotting/production_shares_ammonia.xlsx
+++ b/Plotting/production_shares_ammonia.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Emissionlimit Brownfield</t>
+          <t>EmissionLimit Brownfield</t>
         </is>
       </c>
       <c r="C1" s="1" t="n"/>
